--- a/Pregnant_woman_tracking.xlsx
+++ b/Pregnant_woman_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10617,6 +10617,291 @@
         </is>
       </c>
     </row>
+    <row r="164">
+      <c r="A164">
+        <v>6241</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>LVASA/18/96/27</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Roommate</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>08037782333</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>6248</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>LVASA/18/96/9</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Roommate</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>08088456378</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>6318</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>First room by right</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Balogun Folarin</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>07059028381</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>6367</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>76 Shitta street</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Patience uche</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>09065330763</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>17:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>6371</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>82 Shitta street</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Sulamon Tajudeen</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>08117534164</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday,Saturday</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pregnant_woman_tracking.xlsx
+++ b/Pregnant_woman_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12813,198 +12813,539 @@
     </row>
     <row r="166">
       <c r="A166">
+        <v>6248</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>IJAODOLA / OLORI STREET, SHOGUNLE</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>96</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>30 Olori Street off Alh.Yekini Street Oshodi isolo Lagos</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>LVASA/18/96/9</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Roommate</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>08088456378</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
         <v>6318</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <v>1</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>OKO LOMI, BOGIJE</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="P166" t="inlineStr">
+      <c r="P167" t="inlineStr">
         <is>
           <t>First room by right</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr">
+      <c r="Q167" t="inlineStr">
         <is>
           <t>Head of Household</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr">
+      <c r="R167" t="inlineStr">
         <is>
           <t>Balogun Folarin</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="S167" t="inlineStr">
         <is>
           <t>07059028381</t>
         </is>
       </c>
-      <c r="U166" t="inlineStr">
+      <c r="U167" t="inlineStr">
         <is>
           <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
-      <c r="V166" t="inlineStr">
+      <c r="V167" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167">
+    <row r="168">
+      <c r="A168">
+        <v>6318</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>OKO LOMI, BOGIJE</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>First room by right</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Balogun Folarin</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>07059028381</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
         <v>6367</v>
       </c>
-      <c r="B167">
+      <c r="B169">
         <v>4</v>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Agege</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>tab7</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="P167" t="inlineStr">
+      <c r="P169" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
         </is>
       </c>
-      <c r="Q167" t="inlineStr">
+      <c r="Q169" t="inlineStr">
         <is>
           <t>Head of Household</t>
         </is>
       </c>
-      <c r="R167" t="inlineStr">
+      <c r="R169" t="inlineStr">
         <is>
           <t>Patience uche</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="S169" t="inlineStr">
         <is>
           <t>09065330763</t>
         </is>
       </c>
-      <c r="U167" t="inlineStr">
+      <c r="U169" t="inlineStr">
         <is>
           <t>Thursday,Friday,Saturday</t>
         </is>
       </c>
-      <c r="V167" t="inlineStr">
+      <c r="V169" t="inlineStr">
         <is>
           <t>17:17:00</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168">
-        <v>6371</v>
-      </c>
-      <c r="B168">
-        <v>3</v>
-      </c>
-      <c r="C168" t="inlineStr">
+    <row r="170">
+      <c r="A170">
+        <v>6367</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t>Agege</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>84 Shitta street</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>76 Shitta street</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>tab7</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="P168" t="inlineStr">
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>76 Shitta street</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Patience uche</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>09065330763</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>17:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>6371</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>84 Shitta street</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
         <is>
           <t>82 Shitta street</t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr">
+      <c r="Q171" t="inlineStr">
         <is>
           <t>Head of Household</t>
         </is>
       </c>
-      <c r="R168" t="inlineStr">
+      <c r="R171" t="inlineStr">
         <is>
           <t>Sulamon Tajudeen</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="S171" t="inlineStr">
         <is>
           <t>08117534164</t>
         </is>
       </c>
-      <c r="U168" t="inlineStr">
+      <c r="U171" t="inlineStr">
         <is>
           <t>Wednesday,Thursday,Saturday</t>
         </is>
       </c>
-      <c r="V168" t="inlineStr">
+      <c r="V171" t="inlineStr">
         <is>
           <t>18:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>6371</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>84 Shitta street</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>82 Shitta street</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Sulamon Tajudeen</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>08117534164</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday,Saturday</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>6395</v>
+      </c>
+      <c r="B173">
+        <v>14</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>CEMETRY/ONDO/H/MACAULEY, EBUTE METTA</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>1208</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>No 13 Ondo street Lagos mainland</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>LVASA/15/1208/8</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Ground floor</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Eto Giwa</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>08055471571</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
         </is>
       </c>
     </row>

--- a/Pregnant_woman_tracking.xlsx
+++ b/Pregnant_woman_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V173"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1290,14 +1290,17 @@
           <t>OLIYIDE/ALABA STREET, PAPA-AJAO</t>
         </is>
       </c>
+      <c r="E13">
+        <v>246</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>2 Alaba street off Ladipo mushin Lagos</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>LVASA/16/246/11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -13346,6 +13349,649 @@
       <c r="V173" t="inlineStr">
         <is>
           <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>6448</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>2762</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>NO 35 IFEDORE STREET OFF CAPTAIN DAVIS</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>LVASA/3/2762/18</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>36 IFEDORE STREET OFF CAPTAIN DAVIS AYOBO</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>OKAFOR JOY</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>08037260669</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>08037260669</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>17:08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>6448</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>2762</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>NO 35 IFEDORE STREET OFF CAPTAIN DAVIS</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>LVASA/3/2762/18</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>36 IFEDORE STREET OFF CAPTAIN DAVIS AYOBO</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>OKAFOR JOY</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>08037260669</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>08037260669</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>17:08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>6751</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>HAZAN STREET, BOGIJE</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>824</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2, Aileru Street. Baba Mustapha House</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>LVASA/9/824/23</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>Second room down</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>08163810068</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>6757</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>HAZAN STREET, BOGIJE</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>824</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Baba Mustapha Street, 2 Aileru</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>LVASA/9/824/31</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>Second flat downstairs right</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Mummy Oyin</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>08089365250</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>6773</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Abisoye str off Ikoga Road Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>Font flat</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Mr Alhbudulai Latifeef</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>09124790602</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>6779</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>2nd room with the building.</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Mrs Abeje</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>08025114317</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>6794</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>No 2, Patrick Street off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Mrs Patrick Iheanacho</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>08034370479</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>10:29:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>6796</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Mr Stephen falana house , Patrick Ameale street off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>Stan alone bungalow.</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Mr Falana Stephen</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>08033913402</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>06:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>6857</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>ASIMU ASIWAJU/IYALAJE, EJIGBO</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>19 Asili Asiwaju Street off Iyalaje Street Oshodi isolo Lagos</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Bernard Precious</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>07060744118</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
         </is>
       </c>
     </row>

--- a/Pregnant_woman_tracking.xlsx
+++ b/Pregnant_woman_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2100,9 +2100,17 @@
           <t>OBIWUMI STREET, BAJULAYE</t>
         </is>
       </c>
+      <c r="E23">
+        <v>1418</v>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>20, Obiwunmi street</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>LVASA/19/1418/24</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2169,9 +2177,17 @@
           <t>OBIWUMI STREET, BAJULAYE</t>
         </is>
       </c>
+      <c r="E24">
+        <v>1418</v>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>12, Obiwunmi street</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>LVASA/19/1418/17</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2459,6 +2475,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ADEALU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="E28">
         <v>972</v>
       </c>
@@ -2536,9 +2557,17 @@
           <t>AREMU (TWO)0, EWUTUNTUN</t>
         </is>
       </c>
+      <c r="E29">
+        <v>230</v>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>22 Aremu Olatunbosun Ewu airport road Lagos</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>LVASA/18/230/17</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2605,9 +2634,17 @@
           <t>AREMU (TWO)0, EWUTUNTUN</t>
         </is>
       </c>
+      <c r="E30">
+        <v>230</v>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>24, Aremu Olatunbosun Ewu airport road Lagos</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>LVASA/18/230/18</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3126,6 +3163,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>OGUNBAMBI STREET, DOPEMU</t>
+        </is>
+      </c>
       <c r="E37">
         <v>1640</v>
       </c>
@@ -5837,6 +5879,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SALAU, MORICASS</t>
+        </is>
+      </c>
       <c r="E73">
         <v>1050</v>
       </c>
@@ -8077,6 +8124,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>HADISA FALE STREET, IGANDO</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>9b ADIZA FALE STREET IGANDO</t>
@@ -8762,6 +8814,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MOSALASHI STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="E111">
         <v>1448</v>
       </c>
@@ -8834,6 +8891,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MOSALASHI STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="E112">
         <v>1448</v>
       </c>
@@ -8906,6 +8968,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="E113">
         <v>1506</v>
       </c>
@@ -8978,6 +9045,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="E114">
         <v>1506</v>
       </c>
@@ -9050,6 +9122,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="E115">
         <v>1506</v>
       </c>
@@ -9122,6 +9199,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="E116">
         <v>1506</v>
       </c>
@@ -9194,6 +9276,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="E117">
         <v>1506</v>
       </c>
@@ -10607,6 +10694,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ADELIYI / SEGILOLA, ISALE OJA</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>1 segilola street</t>
@@ -10984,6 +11076,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ILESANMI ADEOLA, IGANDO</t>
+        </is>
+      </c>
       <c r="E141">
         <v>5822</v>
       </c>
@@ -11061,6 +11158,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>ILESANMI ADEOLA, IGANDO</t>
+        </is>
+      </c>
       <c r="E142">
         <v>5822</v>
       </c>
@@ -12067,6 +12169,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>AKINDIYA / OGBA ROAD, SANGO</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>16 Akindiya street</t>
@@ -12546,6 +12653,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>MOSAN/OKUNOLA A.L.G. SEC., AKINOGUN</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>27 BOSORO STREET OFF AKINOGUN BUS STOP</t>
@@ -13031,6 +13143,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
@@ -13095,6 +13212,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
@@ -13159,6 +13281,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>84 Shitta street</t>
@@ -13223,6 +13350,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>84 Shitta street</t>
@@ -13364,6 +13496,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>IFELODUN/IFEDORE STREET, ORISUNMBARE</t>
+        </is>
+      </c>
       <c r="E174">
         <v>2762</v>
       </c>
@@ -13441,6 +13578,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>IFELODUN/IFEDORE STREET, ORISUNMBARE</t>
+        </is>
+      </c>
       <c r="E175">
         <v>2762</v>
       </c>
@@ -13992,6 +14134,963 @@
       <c r="V182" t="inlineStr">
         <is>
           <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>7064</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>466</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo 12</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/27</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo 12</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Mrs blessing nwoba</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>07029242611</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>7070</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>466</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo 4</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/32</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo 4</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Mrs anruna abosede</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>07016187001</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>7088</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>466</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street off olisa street 42</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/49</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street 40</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Mrs Godwin</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>07049309368</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>7097</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>466</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street off Ogunbela street 18</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/57</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street off Ogunbela street 18</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Mr akingbade gbenja</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>08056110118</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>07:21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>7101</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>466</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street off Ogunbela street 8</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/61</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street off Ogunbela street 8</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Mrs doh comfort</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>09162891923</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>7119</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5 shobowale street</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>5 shobowale street</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Omowumi Yusuf</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>08075271214</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>14:34:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>7125</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>17 shobowale street</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>17 shobowale street</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Oyin Abiodun</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>08123889378</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Thursday</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>15:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>7126</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>19 shobowale street</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>19 shobowale street</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Gabriel Precious</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>07088693798</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Saturday</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>7134</v>
+      </c>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>37 shobowale street</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>37 shobowale street</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Success Oluwafemi</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>08132505801</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>08032781922</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>Monday,Wednesday,Thursday,Friday</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>7171</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>24 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>3atpry grey building</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Flat 5</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Mamood Saheed</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>09099559553</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>7186</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>ARAROMI RD, ELEKO</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>7, Araromi street Eleko</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>First room</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Rasheed Rauf Abiola</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>07048572095</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>7262</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>Mr Wasiu Jacob house, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Mr Jacob Wasiu</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>07012617774</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>09:33:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>7293</v>
+      </c>
+      <c r="B195">
+        <v>7</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>IJEGUN EGBA ZONE 2, IJEGUN</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Celestial street off zone 2 Ijegun Egba</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Black big geepee tank Infront of building</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>Within the building</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Miss Favour</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>09165696619</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>08132912220</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>13:35:00</t>
         </is>
       </c>
     </row>

--- a/Pregnant_woman_tracking.xlsx
+++ b/Pregnant_woman_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V195"/>
+  <dimension ref="A1:V211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15094,6 +15094,1195 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196">
+        <v>7443</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E196">
+        <v>294</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street No 41</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/13</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street No 41</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Mrs oduse</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>08109616696</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>7456</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E197">
+        <v>294</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street no 8a</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/25</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street no 8a</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Mrs gerri</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>08152421229</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>7457</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E198">
+        <v>294</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/26</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Mr melelulara</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>07032921852</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>7476</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E199">
+        <v>294</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street no 14</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/43</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street no 14</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Mrs suliat</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>09125607444</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>7478</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E200">
+        <v>294</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 22</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/45</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 22</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Mr Paulina gabirel</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>08138441429</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>7482</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E201">
+        <v>294</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 5</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/49</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 5b</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Mrs grace</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>08064504561</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>14:14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>7484</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E202">
+        <v>294</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 7</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/50</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 7</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Mr olufemi</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>08038244387</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>7485</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E203">
+        <v>294</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 3</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/51</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 3</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Mrs Eduuwom</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>09161670025</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>7499</v>
+      </c>
+      <c r="B204">
+        <v>7</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="E204">
+        <v>294</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street off tope crescent no 26a</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/64</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street off tope crescent no 26a</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Mrs igwe ukamaka</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>07058423096</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>7507</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>11, Odusami Street Poka Epe</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Second room</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Miss Temilade</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>09050725366</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>09050725366</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>Thursday,Saturday</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>7742</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ISAH JUBRIL STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="E206">
+        <v>188</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>No 11, Olaniyi Iyiola str Oko Afo Badagry</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>LVASA/6/188/58</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>A stand alone boys Quarter in the building.</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Mr Abubakar Kudi</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>08025628744</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>10:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>7809</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4 bello Ajare street</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>4 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Oluwadamilola Ogunmekun</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>07081519190</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Sunday</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>7812</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>10 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>10 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Kabiru Augusta</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>08063792523</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Thursday</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>16:32:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>7821</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>17 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>17 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Precious Ezekwe</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>08085929422</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday,Friday</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>17:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>7828</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>3 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Mr tope</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>07062062512</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday,Friday</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>17:57:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>7832</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>7 olusesi street</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>7 olusesi street</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Fatima Mohammed</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>08088399125</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>21:11:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pregnant_woman_tracking.xlsx
+++ b/Pregnant_woman_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V211"/>
+  <dimension ref="A1:V222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16283,6 +16283,793 @@
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212">
+        <v>7914</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="E212">
+        <v>1532</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Building opposite a mask beside the mosque</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/2</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Building next to the mosque</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Mr Muhiz Lawal</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>08153015631</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>7938</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="E213">
+        <v>1532</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Building directly opposite THE CHILD OF FORTUNE ACADEMY</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/7</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Mr Richard Idongesit</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>09051755558</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>7945</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street no 17</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street no 17</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Mr Moses</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>08148947412</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>09:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>7962</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street no 32a</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street no 32a</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Mrs Janet</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>08168778320</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>09:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>7977</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street off Atuluse 35street community road</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street off Atuluse 35street community road</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Mrs yasari</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>09152848177</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>7986</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street off Atuluse 19street community road</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street off Atuluse 19street community road</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Mummy movelure</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>09054932389</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>8031</v>
+      </c>
+      <c r="B218">
+        <v>8</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>LAYOFASAN STREET, IJAIYE OJOKORO</t>
+        </is>
+      </c>
+      <c r="E218">
+        <v>522</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>6 Odusanya Street</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>LVASA/10/522/31</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Mummy Mariam</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>8231</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>7, ALHAJI, ALHAJA STREET, ABESAN</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>22A IFELODUN STREET ABESAN</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>FLAT 3</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>MR EGUNJOBI</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>08034434023</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>08034434023</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>18:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>8362</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="E220">
+        <v>180</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>No 3, Bolaji Str, off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/23</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>A stand alone bungalow.</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Mr Ashoshile Gabriel</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>08038081788</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>07:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>8373</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="E221">
+        <v>180</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>No 15, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/47</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>First flat in the main building</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Mr Tijani Mutiu</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>09129506944</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>05:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>8377</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="E222">
+        <v>180</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bolaji Str off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/56</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>2nd room</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Mr Babatunde Ayeni</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>08123883797</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>06:47:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pregnant_woman_tracking.xlsx
+++ b/Pregnant_woman_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V311"/>
+  <dimension ref="A1:V338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23434,6 +23434,1876 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312">
+        <v>9128</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 22 Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 22 Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Mrs omoboye</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>09157454182</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>9128</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 22 Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 22 Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Mrs omoboye</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>09157454182</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>9138</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 3bOgolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 3bOgolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Mrs amachi aboh</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>08063109937</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>9138</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 3bOgolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 3bOgolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Mrs amachi aboh</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>08063109937</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>9161</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Mrs giwa yetunde</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>07015921836</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>9161</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Mrs giwa yetunde</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>07015921836</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>9304</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>OLUSOLA ARIYO STREET, LANGBASA</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Building facing the bush before redeem church compound</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Mrs Bose Emmanuel</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>09163538355</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>9304</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>OLUSOLA ARIYO STREET, LANGBASA</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Building facing the bush before redeem church compound</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Mrs Bose Emmanuel</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>09163538355</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>9346</v>
+      </c>
+      <c r="B320">
+        <v>10</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>22, OLUWAGBEBE STREET, SHASHA</t>
+        </is>
+      </c>
+      <c r="E320">
+        <v>4050</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>33 oluwagbebe street</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>LVASA/3/4050/20</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>33 oluwagbebe street</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Moses Siwele</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>09161826449</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>Wednesday,Saturday</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>21:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>9531</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Lagos Island</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>OLOYE FAAJI, ISALE GANGAN</t>
+        </is>
+      </c>
+      <c r="E321">
+        <v>546</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>28 binuyo street, off isalegan ga street,lagos island</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>28 binuyo street</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>LVASA/14/546/13</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>CHIJOKE CHUKWU EMEKA
+AJULU AFUSAT</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>28 binuyo STREET ,1st floor</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Alade yemi</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>08037737646</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>9531</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Lagos Island</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>OLOYE FAAJI, ISALE GANGAN</t>
+        </is>
+      </c>
+      <c r="E322">
+        <v>546</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>28 binuyo street, off isalegan ga street,lagos island</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>28 binuyo street</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>LVASA/14/546/13</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>CHIJOKE CHUKWU EMEKA
+AJULU AFUSAT</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>28 binuyo STREET ,1st floor</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Alade yemi</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>08037737646</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>9678</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>32 IMOBI STREET, SHASHA</t>
+        </is>
+      </c>
+      <c r="E323">
+        <v>4454</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>6 Malad street</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>LVASA/3/4454/20</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>6 Malad street</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Olagunju Olawale</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>08176704075</t>
+        </is>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>22:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>9692</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>32 IMOBI STREET, SHASHA</t>
+        </is>
+      </c>
+      <c r="E324">
+        <v>4454</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>13 Imobi street</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>LVASA/3/4454/34</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>13  Imobi street</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Alhaji Buari</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>08028293003</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>12:59:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>9727</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>ILASHE BEACH, IBESHE</t>
+        </is>
+      </c>
+      <c r="E325">
+        <v>2058</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Oniilase Compound</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>LVASA/4/2058/25</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>Within the building</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Mrs Kofoworola Emmanuel</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>08137886142</t>
+        </is>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday</t>
+        </is>
+      </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>9727</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>ILASHE BEACH, IBESHE</t>
+        </is>
+      </c>
+      <c r="E326">
+        <v>2058</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Oniilase Compound</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>LVASA/4/2058/25</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>Within the building</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Mrs Kofoworola Emmanuel</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>08137886142</t>
+        </is>
+      </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday</t>
+        </is>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>9758</v>
+      </c>
+      <c r="B327">
+        <v>11</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>No 1, Sheibu Str. Masa Masa</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>3rd room by the right within the building.</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Baba Ada</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>07066029679</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>9760</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>11, Moshalashi street Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>The 3rd room by the right within the bungalow</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Daddy Sofiat</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>08088215719</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>15:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>9771</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>No 23, Moshalashi str Masa Masa Amuwo Odofin Lagos.</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>3rd room within the building.</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Mr Emmanuel Ibezim</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>08186223789</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>03:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>9851</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>SARUMI / ADARANMOYE STR., SHASHA</t>
+        </is>
+      </c>
+      <c r="E330">
+        <v>4170</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>5 KASLAT STREET EGBEDA</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>LVASA/3/4170/43</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>5 KASLAT STREET EGBEDA</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>NIFEMI</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>09136935283</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>20:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>9851</v>
+      </c>
+      <c r="B331">
+        <v>4</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>SARUMI / ADARANMOYE STR., SHASHA</t>
+        </is>
+      </c>
+      <c r="E331">
+        <v>4170</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>5 KASLAT STREET EGBEDA</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>LVASA/3/4170/43</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>5 KASLAT STREET EGBEDA</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>NIFEMI</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>09136935283</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>20:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>9903</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Fadeyi no 15</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Building 1</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>08068967630</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>14:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>9903</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Fadeyi no 15</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Building 1</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>08068967630</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>14:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>9914</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Building by the right in Abogun family compound</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Mrs Kehinde Abogun</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>09162299833</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>9914</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Building by the right in Abogun family compound</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Mrs Kehinde Abogun</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>09162299833</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>10145</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>ETAOKO STREET/OLASUIYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>No 51, Olasuiye str Ijegun Amuwo Odofin Lagos state.</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>A story building with 6 Flats within the building.</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Mr Ogbonna Christian Mdubike</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>10156</v>
+      </c>
+      <c r="B337">
+        <v>6</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>ETAOKO STREET/OLASUIYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>No 75, Olasuoye Str. Ijegun Amuwo Odofin Lagos.</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>6th room within the building.</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Mr Ebenezer</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>07043138507</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>10:44:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>10160</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>ETAOKO STREET/OLASUIYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>No 76, Kehinde eta Oko Str. Amuwo Odofin Lagos.</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>2nd flat within the building.</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Mr Kazim Abass</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>08060652491</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>06:22:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
